--- a/www/ig/nos/ValueSet-JDV-J256-Pays.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J256-Pays.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -100,1276 +106,1195 @@
     <t>99100</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>99101</t>
   </si>
   <si>
-    <t>DANEMARK</t>
+    <t>Danemark</t>
   </si>
   <si>
     <t>99102</t>
   </si>
   <si>
-    <t>ISLANDE</t>
+    <t>Islande</t>
   </si>
   <si>
     <t>99103</t>
   </si>
   <si>
-    <t>NORVEGE</t>
+    <t>Norvège</t>
   </si>
   <si>
     <t>99104</t>
   </si>
   <si>
-    <t>SUEDE</t>
+    <t>Suède</t>
   </si>
   <si>
     <t>99105</t>
   </si>
   <si>
-    <t>FINLANDE</t>
+    <t>Finlande</t>
   </si>
   <si>
     <t>99106</t>
   </si>
   <si>
-    <t>ESTONIE</t>
+    <t>Estonie</t>
   </si>
   <si>
     <t>99107</t>
   </si>
   <si>
-    <t>LETTONIE</t>
+    <t>Lettonie</t>
   </si>
   <si>
     <t>99108</t>
   </si>
   <si>
-    <t>LITUANIE</t>
+    <t>Lituanie</t>
   </si>
   <si>
     <t>99109</t>
   </si>
   <si>
-    <t>ALLEMAGNE</t>
+    <t>Allemagne</t>
   </si>
   <si>
     <t>99110</t>
   </si>
   <si>
-    <t>AUTRICHE</t>
+    <t>Autriche</t>
   </si>
   <si>
     <t>99111</t>
   </si>
   <si>
-    <t>BULGARIE</t>
+    <t>Bulgarie</t>
   </si>
   <si>
     <t>99112</t>
   </si>
   <si>
-    <t>HONGRIE</t>
+    <t>Hongrie</t>
   </si>
   <si>
     <t>99113</t>
   </si>
   <si>
-    <t>LIECHTENSTEIN</t>
+    <t>Liechtenstein</t>
   </si>
   <si>
     <t>99114</t>
   </si>
   <si>
-    <t>ROUMANIE</t>
+    <t>Roumanie</t>
   </si>
   <si>
     <t>99116</t>
   </si>
   <si>
-    <t>TCHEQUIE</t>
+    <t>Tchéquie</t>
   </si>
   <si>
     <t>99117</t>
   </si>
   <si>
-    <t>SLOVAQUIE</t>
+    <t>Slovaquie</t>
   </si>
   <si>
     <t>99118</t>
   </si>
   <si>
-    <t>BOSNIE-HERZEGOVINE</t>
+    <t>Bosnie-Herzégovine</t>
   </si>
   <si>
     <t>99119</t>
   </si>
   <si>
-    <t>CROATIE</t>
+    <t>Croatie</t>
   </si>
   <si>
     <t>99120</t>
   </si>
   <si>
-    <t>MONTENEGRO</t>
+    <t>Monténégro</t>
   </si>
   <si>
     <t>99121</t>
   </si>
   <si>
-    <t>SERBIE</t>
+    <t>Serbie</t>
   </si>
   <si>
     <t>99122</t>
   </si>
   <si>
-    <t>POLOGNE</t>
+    <t>Pologne</t>
   </si>
   <si>
     <t>99123</t>
   </si>
   <si>
-    <t>RUSSIE</t>
+    <t>Russie</t>
   </si>
   <si>
     <t>99125</t>
   </si>
   <si>
-    <t>ALBANIE</t>
+    <t>Albanie</t>
   </si>
   <si>
     <t>99126</t>
   </si>
   <si>
-    <t>GRECE</t>
+    <t>Grèce</t>
   </si>
   <si>
     <t>99127</t>
   </si>
   <si>
-    <t>ITALIE</t>
+    <t>Italie</t>
   </si>
   <si>
     <t>99128</t>
   </si>
   <si>
-    <t>SAINT-MARIN</t>
+    <t>Saint-Marin</t>
   </si>
   <si>
     <t>99129</t>
   </si>
   <si>
-    <t>VATICAN, ou SAINT-SIEGE</t>
+    <t>Vatican</t>
   </si>
   <si>
     <t>99130</t>
   </si>
   <si>
-    <t>ANDORRE</t>
+    <t>Andorre</t>
   </si>
   <si>
     <t>99131</t>
   </si>
   <si>
-    <t>BELGIQUE</t>
+    <t>Belgique</t>
   </si>
   <si>
     <t>99132</t>
   </si>
   <si>
-    <t>ROYAUME-UNI</t>
-  </si>
-  <si>
-    <t>99133</t>
-  </si>
-  <si>
-    <t>GIBRALTAR</t>
+    <t>Royaume-Uni</t>
   </si>
   <si>
     <t>99134</t>
   </si>
   <si>
-    <t>ESPAGNE</t>
+    <t>Espagne</t>
   </si>
   <si>
     <t>99135</t>
   </si>
   <si>
-    <t>PAYS-BAS</t>
+    <t>Pays-Bas</t>
   </si>
   <si>
     <t>99136</t>
   </si>
   <si>
-    <t>IRLANDE, ou EIRE</t>
+    <t>Irlande</t>
   </si>
   <si>
     <t>99137</t>
   </si>
   <si>
-    <t>LUXEMBOURG</t>
+    <t>Luxembourg</t>
   </si>
   <si>
     <t>99138</t>
   </si>
   <si>
-    <t>MONACO</t>
+    <t>Monaco</t>
   </si>
   <si>
     <t>99139</t>
   </si>
   <si>
-    <t>PORTUGAL</t>
+    <t>Portugal</t>
   </si>
   <si>
     <t>99140</t>
   </si>
   <si>
-    <t>SUISSE</t>
+    <t>Suisse</t>
   </si>
   <si>
     <t>99144</t>
   </si>
   <si>
-    <t>MALTE</t>
+    <t>Malte</t>
   </si>
   <si>
     <t>99145</t>
   </si>
   <si>
-    <t>SLOVENIE</t>
+    <t>Slovénie</t>
   </si>
   <si>
     <t>99148</t>
   </si>
   <si>
-    <t>BIELORUSSIE</t>
+    <t>Biélorussie</t>
   </si>
   <si>
     <t>99151</t>
   </si>
   <si>
-    <t>MOLDAVIE</t>
+    <t>Moldavie</t>
   </si>
   <si>
     <t>99155</t>
   </si>
   <si>
-    <t>UKRAINE</t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>99156</t>
   </si>
   <si>
-    <t>MACEDOINE DU NORD</t>
+    <t>Macédoine du Nord</t>
   </si>
   <si>
     <t>99157</t>
   </si>
   <si>
-    <t>KOSOVO</t>
+    <t>Kosovo</t>
   </si>
   <si>
     <t>99201</t>
   </si>
   <si>
-    <t>ARABIE SAOUDITE</t>
+    <t>Arabie saoudite</t>
   </si>
   <si>
     <t>99203</t>
   </si>
   <si>
-    <t>IRAQ</t>
+    <t>Irak</t>
   </si>
   <si>
     <t>99204</t>
   </si>
   <si>
-    <t>IRAN</t>
+    <t>Iran</t>
   </si>
   <si>
     <t>99205</t>
   </si>
   <si>
-    <t>LIBAN</t>
+    <t>Liban</t>
   </si>
   <si>
     <t>99206</t>
   </si>
   <si>
-    <t>SYRIE</t>
+    <t>Syrie</t>
   </si>
   <si>
     <t>99207</t>
   </si>
   <si>
-    <t>ISRAEL</t>
+    <t>Israël</t>
   </si>
   <si>
     <t>99208</t>
   </si>
   <si>
-    <t>TURQUIE</t>
+    <t>Turquie</t>
   </si>
   <si>
     <t>99212</t>
   </si>
   <si>
-    <t>AFGHANISTAN</t>
+    <t>Afghanistan</t>
   </si>
   <si>
     <t>99213</t>
   </si>
   <si>
-    <t>PAKISTAN</t>
+    <t>Pakistan</t>
   </si>
   <si>
     <t>99214</t>
   </si>
   <si>
-    <t>BHOUTAN</t>
+    <t>Bhoutan</t>
   </si>
   <si>
     <t>99215</t>
   </si>
   <si>
-    <t>NEPAL</t>
+    <t>Népal</t>
   </si>
   <si>
     <t>99216</t>
   </si>
   <si>
-    <t>CHINE</t>
+    <t>Chine</t>
   </si>
   <si>
     <t>99217</t>
   </si>
   <si>
-    <t>JAPON</t>
+    <t>Japon</t>
   </si>
   <si>
     <t>99219</t>
   </si>
   <si>
-    <t>THAILANDE</t>
+    <t>Thaïlande</t>
   </si>
   <si>
     <t>99220</t>
   </si>
   <si>
-    <t>PHILIPPINES</t>
+    <t>Philippines</t>
   </si>
   <si>
     <t>99222</t>
   </si>
   <si>
-    <t>JORDANIE</t>
+    <t>Jordanie</t>
   </si>
   <si>
     <t>99223</t>
   </si>
   <si>
-    <t>INDE</t>
+    <t>Inde</t>
   </si>
   <si>
     <t>99224</t>
   </si>
   <si>
-    <t>BIRMANIE</t>
+    <t>Birmanie</t>
   </si>
   <si>
     <t>99225</t>
   </si>
   <si>
-    <t>BRUNEI</t>
+    <t>Brunei</t>
   </si>
   <si>
     <t>99226</t>
   </si>
   <si>
-    <t>SINGAPOUR</t>
+    <t>Singapour</t>
   </si>
   <si>
     <t>99227</t>
   </si>
   <si>
-    <t>MALAISIE</t>
+    <t>Malaisie</t>
   </si>
   <si>
     <t>99229</t>
   </si>
   <si>
-    <t>MALDIVES</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>99231</t>
   </si>
   <si>
-    <t>INDONESIE</t>
+    <t>Indonésie</t>
   </si>
   <si>
     <t>99234</t>
   </si>
   <si>
-    <t>CAMBODGE</t>
+    <t>Cambodge</t>
   </si>
   <si>
     <t>99235</t>
   </si>
   <si>
-    <t>SRI LANKA</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>99236</t>
   </si>
   <si>
-    <t>TAIWAN</t>
+    <t>Taïwan</t>
   </si>
   <si>
     <t>99238</t>
   </si>
   <si>
-    <t>COREE (REPUBLIQUE POPULAIRE DEMOCRATIQUE DE)</t>
+    <t>Corée du Nord</t>
   </si>
   <si>
     <t>99239</t>
   </si>
   <si>
-    <t>COREE (REPUBLIQUE DE)</t>
+    <t>Corée du Sud</t>
   </si>
   <si>
     <t>99240</t>
   </si>
   <si>
-    <t>KOWEIT</t>
+    <t>Koweït</t>
   </si>
   <si>
     <t>99241</t>
   </si>
   <si>
-    <t>LAOS</t>
+    <t>Laos</t>
   </si>
   <si>
     <t>99242</t>
   </si>
   <si>
-    <t>MONGOLIE</t>
+    <t>Mongolie</t>
   </si>
   <si>
     <t>99243</t>
   </si>
   <si>
-    <t>VIET NAM</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>99246</t>
   </si>
   <si>
-    <t>BANGLADESH</t>
+    <t>Bangladesh</t>
   </si>
   <si>
     <t>99247</t>
   </si>
   <si>
-    <t>EMIRATS ARABES UNIS</t>
+    <t>Émirats arabes unis</t>
   </si>
   <si>
     <t>99248</t>
   </si>
   <si>
-    <t>QATAR</t>
+    <t>Qatar</t>
   </si>
   <si>
     <t>99249</t>
   </si>
   <si>
-    <t>BAHREIN</t>
+    <t>Bahreïn</t>
   </si>
   <si>
     <t>99250</t>
   </si>
   <si>
-    <t>OMAN</t>
+    <t>Oman</t>
   </si>
   <si>
     <t>99251</t>
   </si>
   <si>
-    <t>YEMEN</t>
+    <t>Yémen</t>
   </si>
   <si>
     <t>99252</t>
   </si>
   <si>
-    <t>ARMENIE</t>
+    <t>Arménie</t>
   </si>
   <si>
     <t>99253</t>
   </si>
   <si>
-    <t>AZERBAIDJAN</t>
+    <t>Azerbaïdjan</t>
   </si>
   <si>
     <t>99254</t>
   </si>
   <si>
-    <t>CHYPRE</t>
+    <t>Chypre</t>
   </si>
   <si>
     <t>99255</t>
   </si>
   <si>
-    <t>GEORGIE</t>
+    <t>Géorgie</t>
   </si>
   <si>
     <t>99256</t>
   </si>
   <si>
-    <t>KAZAKHSTAN</t>
+    <t>Kazakhstan</t>
   </si>
   <si>
     <t>99257</t>
   </si>
   <si>
-    <t>KIRGHIZISTAN</t>
+    <t>Kirghizstan</t>
   </si>
   <si>
     <t>99258</t>
   </si>
   <si>
-    <t>OUZBEKISTAN</t>
+    <t>Ouzbékistan</t>
   </si>
   <si>
     <t>99259</t>
   </si>
   <si>
-    <t>TADJIKISTAN</t>
+    <t>Tadjikistan</t>
   </si>
   <si>
     <t>99260</t>
   </si>
   <si>
-    <t>TURKMENISTAN</t>
+    <t>Turkménistan</t>
   </si>
   <si>
     <t>99261</t>
   </si>
   <si>
-    <t>PALESTINE (Etat de)</t>
+    <t>Palestine</t>
   </si>
   <si>
     <t>99262</t>
   </si>
   <si>
-    <t>TIMOR ORIENTAL</t>
+    <t>Timor oriental</t>
   </si>
   <si>
     <t>99301</t>
   </si>
   <si>
-    <t>EGYPTE</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>99302</t>
   </si>
   <si>
-    <t>LIBERIA</t>
+    <t>Libéria</t>
   </si>
   <si>
     <t>99303</t>
   </si>
   <si>
-    <t>AFRIQUE DU SUD</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>99304</t>
   </si>
   <si>
-    <t>GAMBIE</t>
-  </si>
-  <si>
-    <t>99306</t>
-  </si>
-  <si>
-    <t>SAINTE HELENE, ASCENSION ET TRISTAN DA CUNHA</t>
-  </si>
-  <si>
-    <t>99308</t>
-  </si>
-  <si>
-    <t>OCEAN INDIEN (TERRITOIRE BRITANNIQUE DE L')</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>99309</t>
   </si>
   <si>
-    <t>TANZANIE</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>99310</t>
   </si>
   <si>
-    <t>ZIMBABWE</t>
+    <t>Zimbabwe</t>
   </si>
   <si>
     <t>99311</t>
   </si>
   <si>
-    <t>NAMIBIE</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>99312</t>
   </si>
   <si>
-    <t>CONGO (REPUBLIQUE DEMOCRATIQUE)</t>
-  </si>
-  <si>
-    <t>99313</t>
-  </si>
-  <si>
-    <t>PROVINCES ESPAGNOLES D'AFRIQUE</t>
+    <t>République démocratique du Congo</t>
   </si>
   <si>
     <t>99314</t>
   </si>
   <si>
-    <t>GUINEE EQUATORIALE</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>99315</t>
   </si>
   <si>
-    <t>ETHIOPIE</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>99316</t>
   </si>
   <si>
-    <t>LIBYE</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>99317</t>
   </si>
   <si>
-    <t>ERYTHREE</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>99318</t>
   </si>
   <si>
-    <t>SOMALIE</t>
-  </si>
-  <si>
-    <t>99319</t>
-  </si>
-  <si>
-    <t>ACORES, MADERE</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>99321</t>
   </si>
   <si>
-    <t>BURUNDI</t>
+    <t>Burundi</t>
   </si>
   <si>
     <t>99322</t>
   </si>
   <si>
-    <t>CAMEROUN</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>99323</t>
   </si>
   <si>
-    <t>CENTRAFRICAINE (REPUBLIQUE)</t>
+    <t>Centrafrique</t>
   </si>
   <si>
     <t>99324</t>
   </si>
   <si>
-    <t>CONGO</t>
+    <t>Congo</t>
   </si>
   <si>
     <t>99326</t>
   </si>
   <si>
-    <t>COTE D'IVOIRE</t>
+    <t>Côte d'Ivoire</t>
   </si>
   <si>
     <t>99327</t>
   </si>
   <si>
-    <t>BENIN</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>99328</t>
   </si>
   <si>
-    <t>GABON</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>99329</t>
   </si>
   <si>
-    <t>GHANA</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>99330</t>
   </si>
   <si>
-    <t>GUINEE</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>99331</t>
   </si>
   <si>
-    <t>BURKINA</t>
+    <t>Burkina</t>
   </si>
   <si>
     <t>99332</t>
   </si>
   <si>
-    <t>KENYA</t>
+    <t>Kenya</t>
   </si>
   <si>
     <t>99333</t>
   </si>
   <si>
-    <t>MADAGASCAR</t>
+    <t>Madagascar</t>
   </si>
   <si>
     <t>99334</t>
   </si>
   <si>
-    <t>MALAWI</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>99335</t>
   </si>
   <si>
-    <t>MALI</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>99336</t>
   </si>
   <si>
-    <t>MAURITANIE</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>99337</t>
   </si>
   <si>
-    <t>NIGER</t>
+    <t>Niger</t>
   </si>
   <si>
     <t>99338</t>
   </si>
   <si>
-    <t>NIGERIA</t>
+    <t>Nigéria</t>
   </si>
   <si>
     <t>99339</t>
   </si>
   <si>
-    <t>OUGANDA</t>
+    <t>Ouganda</t>
   </si>
   <si>
     <t>99340</t>
   </si>
   <si>
-    <t>RWANDA</t>
+    <t>Rwanda</t>
   </si>
   <si>
     <t>99341</t>
   </si>
   <si>
-    <t>SENEGAL</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>99342</t>
   </si>
   <si>
-    <t>SIERRA LEONE</t>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>99343</t>
   </si>
   <si>
-    <t>SOUDAN</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>99344</t>
   </si>
   <si>
-    <t>TCHAD</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>99345</t>
   </si>
   <si>
-    <t>TOGO</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>99346</t>
   </si>
   <si>
-    <t>ZAMBIE</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>99347</t>
   </si>
   <si>
-    <t>BOTSWANA</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>99348</t>
   </si>
   <si>
-    <t>LESOTHO</t>
+    <t>Lesotho</t>
   </si>
   <si>
     <t>99349</t>
   </si>
   <si>
-    <t>SOUDAN DU SUD</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>99350</t>
   </si>
   <si>
-    <t>MAROC</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>99351</t>
   </si>
   <si>
-    <t>TUNISIE</t>
+    <t>Tunisie</t>
   </si>
   <si>
     <t>99352</t>
   </si>
   <si>
-    <t>ALGERIE</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>99389</t>
   </si>
   <si>
-    <t>SAHARA OCCIDENTAL</t>
+    <t>Sahara occidental</t>
   </si>
   <si>
     <t>99390</t>
   </si>
   <si>
-    <t>MAURICE</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>99391</t>
   </si>
   <si>
-    <t>ESWATINI</t>
+    <t>Swaziland</t>
   </si>
   <si>
     <t>99392</t>
   </si>
   <si>
-    <t>GUINEE-BISSAU</t>
+    <t>Guinée-Bissao</t>
   </si>
   <si>
     <t>99393</t>
   </si>
   <si>
-    <t>MOZAMBIQUE</t>
+    <t>Mozambique</t>
   </si>
   <si>
     <t>99394</t>
   </si>
   <si>
-    <t>SAO TOME-ET-PRINCIPE</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>99395</t>
   </si>
   <si>
-    <t>ANGOLA</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>99396</t>
   </si>
   <si>
-    <t>CAP-VERT</t>
+    <t>Cap-Vert</t>
   </si>
   <si>
     <t>99397</t>
   </si>
   <si>
-    <t>COMORES</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>99398</t>
   </si>
   <si>
-    <t>SEYCHELLES</t>
+    <t>Seychelles</t>
   </si>
   <si>
     <t>99399</t>
   </si>
   <si>
-    <t>DJIBOUTI</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>99401</t>
   </si>
   <si>
-    <t>CANADA</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>99404</t>
   </si>
   <si>
-    <t>ETATS-UNIS</t>
+    <t>États-Unis</t>
   </si>
   <si>
     <t>99405</t>
   </si>
   <si>
-    <t>MEXIQUE</t>
+    <t>Mexique</t>
   </si>
   <si>
     <t>99406</t>
   </si>
   <si>
-    <t>COSTA RICA</t>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>99407</t>
   </si>
   <si>
-    <t>CUBA</t>
+    <t>Cuba</t>
   </si>
   <si>
     <t>99408</t>
   </si>
   <si>
-    <t>DOMINICAINE (REPUBLIQUE)</t>
+    <t>République dominicaine</t>
   </si>
   <si>
     <t>99409</t>
   </si>
   <si>
-    <t>GUATEMALA</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>99410</t>
   </si>
   <si>
-    <t>HAITI</t>
+    <t>Haïti</t>
   </si>
   <si>
     <t>99411</t>
   </si>
   <si>
-    <t>HONDURAS</t>
+    <t>Honduras</t>
   </si>
   <si>
     <t>99412</t>
   </si>
   <si>
-    <t>NICARAGUA</t>
+    <t>Nicaragua</t>
   </si>
   <si>
     <t>99413</t>
   </si>
   <si>
-    <t>PANAMA</t>
+    <t>Panama</t>
   </si>
   <si>
     <t>99414</t>
   </si>
   <si>
-    <t>EL SALVADOR</t>
+    <t>Salvador</t>
   </si>
   <si>
     <t>99415</t>
   </si>
   <si>
-    <t>ARGENTINE</t>
+    <t>Argentine</t>
   </si>
   <si>
     <t>99416</t>
   </si>
   <si>
-    <t>BRESIL</t>
+    <t>Brésil</t>
   </si>
   <si>
     <t>99417</t>
   </si>
   <si>
-    <t>CHILI</t>
+    <t>Chili</t>
   </si>
   <si>
     <t>99418</t>
   </si>
   <si>
-    <t>BOLIVIE</t>
+    <t>Bolivie</t>
   </si>
   <si>
     <t>99419</t>
   </si>
   <si>
-    <t>COLOMBIE</t>
+    <t>Colombie</t>
   </si>
   <si>
     <t>99420</t>
   </si>
   <si>
-    <t>EQUATEUR</t>
+    <t>Équateur</t>
   </si>
   <si>
     <t>99421</t>
   </si>
   <si>
-    <t>PARAGUAY</t>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>99422</t>
   </si>
   <si>
-    <t>PEROU</t>
+    <t>Pérou</t>
   </si>
   <si>
     <t>99423</t>
   </si>
   <si>
-    <t>URUGUAY</t>
+    <t>Uruguay</t>
   </si>
   <si>
     <t>99424</t>
   </si>
   <si>
-    <t>VENEZUELA</t>
-  </si>
-  <si>
-    <t>99425</t>
-  </si>
-  <si>
-    <t>TERRITOIRES DU ROYAUME-UNI AUX ANTILLES</t>
+    <t>Vénézuéla</t>
   </si>
   <si>
     <t>99426</t>
   </si>
   <si>
-    <t>JAMAIQUE</t>
-  </si>
-  <si>
-    <t>99427</t>
-  </si>
-  <si>
-    <t>TERR. DU ROYAUME-UNI DANS L'ATLANTIQUE SUD</t>
+    <t>Jamaïque</t>
   </si>
   <si>
     <t>99428</t>
   </si>
   <si>
-    <t>GUYANA</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>99429</t>
   </si>
   <si>
-    <t>BELIZE</t>
-  </si>
-  <si>
-    <t>99430</t>
-  </si>
-  <si>
-    <t>GROENLAND</t>
-  </si>
-  <si>
-    <t>99432</t>
-  </si>
-  <si>
-    <t>TERR. DES ETATS-UNIS D'AMERIQUE EN AMERIQUE</t>
+    <t>Bélize</t>
   </si>
   <si>
     <t>99433</t>
   </si>
   <si>
-    <t>TRINITE-ET-TOBAGO</t>
+    <t>Trinité-et-Tobago</t>
   </si>
   <si>
     <t>99434</t>
   </si>
   <si>
-    <t>BARBADE</t>
+    <t>Barbade</t>
   </si>
   <si>
     <t>99435</t>
   </si>
   <si>
-    <t>GRENADE</t>
+    <t>Grenade</t>
   </si>
   <si>
     <t>99436</t>
   </si>
   <si>
-    <t>BAHAMAS</t>
+    <t>Bahamas</t>
   </si>
   <si>
     <t>99437</t>
   </si>
   <si>
-    <t>SURINAME</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>99438</t>
   </si>
   <si>
-    <t>DOMINIQUE</t>
+    <t>Dominique</t>
   </si>
   <si>
     <t>99439</t>
   </si>
   <si>
-    <t>SAINTE-LUCIE</t>
+    <t>Sainte-Lucie</t>
   </si>
   <si>
     <t>99440</t>
   </si>
   <si>
-    <t>SAINT-VINCENT-ET-LES GRENADINES</t>
+    <t>Saint-Vincent-et-les-Grenadines</t>
   </si>
   <si>
     <t>99441</t>
   </si>
   <si>
-    <t>ANTIGUA-ET-BARBUDA</t>
+    <t>Antigua-et-Barbuda</t>
   </si>
   <si>
     <t>99442</t>
   </si>
   <si>
-    <t>SAINT-CHRISTOPHE-ET-NIEVES</t>
-  </si>
-  <si>
-    <t>99443</t>
-  </si>
-  <si>
-    <t>BONAIRE, SAINT EUSTACHE ET SABA</t>
-  </si>
-  <si>
-    <t>99444</t>
-  </si>
-  <si>
-    <t>CURAÇAO</t>
-  </si>
-  <si>
-    <t>99445</t>
-  </si>
-  <si>
-    <t>SAINT-MARTIN (PARTIE NEERLANDAISE)</t>
+    <t>Saint-Christophe-et-Niévès</t>
   </si>
   <si>
     <t>99501</t>
   </si>
   <si>
-    <t>AUSTRALIE</t>
+    <t>Australie</t>
   </si>
   <si>
     <t>99502</t>
   </si>
   <si>
-    <t>NOUVELLE-ZELANDE</t>
-  </si>
-  <si>
-    <t>99503</t>
-  </si>
-  <si>
-    <t>PITCAIRN (ILE)</t>
-  </si>
-  <si>
-    <t>99505</t>
-  </si>
-  <si>
-    <t>TERR. DES ETATS-UNIS D'AMERIQUE EN OCEANIE</t>
+    <t>Nouvelle-Zélande</t>
   </si>
   <si>
     <t>99506</t>
   </si>
   <si>
-    <t>SAMOA OCCIDENTALES</t>
+    <t>Samoa</t>
   </si>
   <si>
     <t>99507</t>
   </si>
   <si>
-    <t>NAURU</t>
+    <t>Nauru</t>
   </si>
   <si>
     <t>99508</t>
   </si>
   <si>
-    <t>FIDJI</t>
+    <t>Fidji</t>
   </si>
   <si>
     <t>99509</t>
   </si>
   <si>
-    <t>TONGA</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>99510</t>
   </si>
   <si>
-    <t>PAPOUASIE-NOUVELLE-GUINEE</t>
+    <t>Papouasie-Nouvelle-Guinée</t>
   </si>
   <si>
     <t>99511</t>
   </si>
   <si>
-    <t>TUVALU</t>
+    <t>Tuvalu</t>
   </si>
   <si>
     <t>99512</t>
   </si>
   <si>
-    <t>SALOMON (ILES)</t>
+    <t>Salomon</t>
   </si>
   <si>
     <t>99513</t>
   </si>
   <si>
-    <t>KIRIBATI</t>
+    <t>Kiribati</t>
   </si>
   <si>
     <t>99514</t>
   </si>
   <si>
-    <t>VANUATU</t>
+    <t>Vanuatu</t>
   </si>
   <si>
     <t>99515</t>
   </si>
   <si>
-    <t>MARSHALL (ILES)</t>
+    <t>Marshall</t>
   </si>
   <si>
     <t>99516</t>
   </si>
   <si>
-    <t>MICRONESIE (ETATS FEDERES DE)</t>
+    <t>Micronésie</t>
   </si>
   <si>
     <t>99517</t>
   </si>
   <si>
-    <t>PALAOS (ILES)</t>
-  </si>
-  <si>
-    <t/>
+    <t>Palaos</t>
+  </si>
+  <si>
+    <t>99699</t>
+  </si>
+  <si>
+    <t>Antarctique</t>
   </si>
   <si>
     <t>System URI</t>
@@ -1518,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1624,20 +1549,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1659,1610 +1592,1610 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>425</v>
+        <v>21</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>426</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202">
@@ -3271,110 +3204,6 @@
       </c>
       <c r="B202" t="s" s="2">
         <v>428</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B203" t="s" s="2">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B204" t="s" s="2">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B205" t="s" s="2">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B206" t="s" s="2">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B207" t="s" s="2">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B208" t="s" s="2">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B209" t="s" s="2">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B210" t="s" s="2">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B211" t="s" s="2">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B212" t="s" s="2">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B213" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B214" t="s" s="2">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B215" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3396,34 +3225,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>451</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>451</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J256-Pays.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J256-Pays.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -283,6 +283,12 @@
     <t>Royaume-Uni</t>
   </si>
   <si>
+    <t>99133</t>
+  </si>
+  <si>
+    <t>Territoires britanniques en Méditerranée</t>
+  </si>
+  <si>
     <t>99134</t>
   </si>
   <si>
@@ -499,12 +505,24 @@
     <t>Maldives</t>
   </si>
   <si>
+    <t>99230</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
     <t>99231</t>
   </si>
   <si>
     <t>Indonésie</t>
   </si>
   <si>
+    <t>99232</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
     <t>99234</t>
   </si>
   <si>
@@ -685,6 +703,18 @@
     <t>Gambie</t>
   </si>
   <si>
+    <t>99306</t>
+  </si>
+  <si>
+    <t>Territoires britanniques de l'océan Atlantique</t>
+  </si>
+  <si>
+    <t>99308</t>
+  </si>
+  <si>
+    <t>Chagos</t>
+  </si>
+  <si>
     <t>99309</t>
   </si>
   <si>
@@ -709,6 +739,12 @@
     <t>République démocratique du Congo</t>
   </si>
   <si>
+    <t>99313</t>
+  </si>
+  <si>
+    <t>Territoires espagnols en Afrique du Nord</t>
+  </si>
+  <si>
     <t>99314</t>
   </si>
   <si>
@@ -739,6 +775,12 @@
     <t>Somalie</t>
   </si>
   <si>
+    <t>99319</t>
+  </si>
+  <si>
+    <t>Territoires portugais de l'océan Atlantique</t>
+  </si>
+  <si>
     <t>99321</t>
   </si>
   <si>
@@ -1123,12 +1165,24 @@
     <t>Vénézuéla</t>
   </si>
   <si>
+    <t>99425</t>
+  </si>
+  <si>
+    <t>Territoires britanniques dans les Antilles et Bermudes</t>
+  </si>
+  <si>
     <t>99426</t>
   </si>
   <si>
     <t>Jamaïque</t>
   </si>
   <si>
+    <t>99427</t>
+  </si>
+  <si>
+    <t>Territoires britanniques dans l'océan Atlantique Sud</t>
+  </si>
+  <si>
     <t>99428</t>
   </si>
   <si>
@@ -1141,6 +1195,24 @@
     <t>Bélize</t>
   </si>
   <si>
+    <t>99430</t>
+  </si>
+  <si>
+    <t>Groenland</t>
+  </si>
+  <si>
+    <t>99431</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>99432</t>
+  </si>
+  <si>
+    <t>Territoires des États-Unis en Amérique</t>
+  </si>
+  <si>
     <t>99433</t>
   </si>
   <si>
@@ -1201,6 +1273,24 @@
     <t>Saint-Christophe-et-Niévès</t>
   </si>
   <si>
+    <t>99443</t>
+  </si>
+  <si>
+    <t>Bonaire, Saint-Eustache, Saba</t>
+  </si>
+  <si>
+    <t>99444</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>99445</t>
+  </si>
+  <si>
+    <t>Saint-Martin (partie néerlandaise)</t>
+  </si>
+  <si>
     <t>99501</t>
   </si>
   <si>
@@ -1211,6 +1301,18 @@
   </si>
   <si>
     <t>Nouvelle-Zélande</t>
+  </si>
+  <si>
+    <t>99503</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>99505</t>
+  </si>
+  <si>
+    <t>Territoires des États-Unis en Océanie</t>
   </si>
   <si>
     <t>99506</t>
@@ -1569,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3184,15 +3286,151 @@
         <v>425</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3222,26 +3460,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>429</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>425</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>430</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
